--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavw\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34011CA7-1150-4185-94E4-ACC89865C0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424B461-74AB-49CC-88EF-FA3DB69BA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1365" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>feature</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Political Affiliation</t>
   </si>
   <si>
-    <t>question</t>
-  </si>
-  <si>
     <t>מה ההעדפה הפוליטית שלך</t>
   </si>
   <si>
@@ -172,6 +169,24 @@
   </si>
   <si>
     <t>xl-c2</t>
+  </si>
+  <si>
+    <t>question_heb</t>
+  </si>
+  <si>
+    <t>מה ההעדפה הפוליטית של {}</t>
+  </si>
+  <si>
+    <t>איפה מתרחשים התחביבים של {}</t>
+  </si>
+  <si>
+    <t>מה מבנה הגוף של {}</t>
+  </si>
+  <si>
+    <t>מה רמת האינטליגנציה של {}</t>
+  </si>
+  <si>
+    <t>question_heb_max_min_ideal</t>
   </si>
 </sst>
 </file>
@@ -182,7 +197,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +205,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -498,24 +513,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -530,187 +545,217 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
+      <c r="G10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424B461-74AB-49CC-88EF-FA3DB69BA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B14EE1-E049-4C9D-A395-DD6318230A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B14EE1-E049-4C9D-A395-DD6318230A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D9305-3561-44F0-ADA0-36CEEEFB7BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
   <si>
     <t>feature</t>
   </si>
@@ -39,30 +48,9 @@
     <t>left_end</t>
   </si>
   <si>
-    <t>Political Affiliation</t>
-  </si>
-  <si>
-    <t>מה ההעדפה הפוליטית שלך</t>
-  </si>
-  <si>
     <t>העדפה פוליטית</t>
   </si>
   <si>
-    <t>ימין</t>
-  </si>
-  <si>
-    <t>שמאל</t>
-  </si>
-  <si>
-    <t>Hobbies</t>
-  </si>
-  <si>
-    <t>Body Size</t>
-  </si>
-  <si>
-    <t>Intelligece</t>
-  </si>
-  <si>
     <t>תחביבים</t>
   </si>
   <si>
@@ -72,33 +60,6 @@
     <t>אינטליגנציה</t>
   </si>
   <si>
-    <t>בבית</t>
-  </si>
-  <si>
-    <t>בחוץ</t>
-  </si>
-  <si>
-    <t>איפה מתרחשים התחביבים שלך</t>
-  </si>
-  <si>
-    <t>קטן</t>
-  </si>
-  <si>
-    <t>גדול</t>
-  </si>
-  <si>
-    <t>מה מבנה הגוף שלך</t>
-  </si>
-  <si>
-    <t>ממוצעת</t>
-  </si>
-  <si>
-    <t>גבוהה מאוד</t>
-  </si>
-  <si>
-    <t>מה רמת האינטליגנציה שלך</t>
-  </si>
-  <si>
     <t>set</t>
   </si>
   <si>
@@ -108,85 +69,472 @@
     <t>B</t>
   </si>
   <si>
-    <t>מאפיין מסט 2 - 1</t>
-  </si>
-  <si>
-    <t>מאפיין מסט 2 - 2</t>
-  </si>
-  <si>
-    <t>מאפיין מסט 2 - 3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>מאפיין מסט 3 - 2</t>
-  </si>
-  <si>
-    <t>מאפיין מסט 3 - 1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>xr-b1</t>
-  </si>
-  <si>
-    <t>xr-b2</t>
-  </si>
-  <si>
-    <t>xr-b3</t>
-  </si>
-  <si>
-    <t>xr-c1</t>
-  </si>
-  <si>
-    <t>xr-c2</t>
-  </si>
-  <si>
-    <t>xl-b1</t>
-  </si>
-  <si>
-    <t>xl-b2</t>
-  </si>
-  <si>
-    <t>xl-b3</t>
-  </si>
-  <si>
-    <t>xl-c1</t>
-  </si>
-  <si>
-    <t>xl-c2</t>
-  </si>
-  <si>
     <t>question_heb</t>
   </si>
   <si>
-    <t>מה ההעדפה הפוליטית של {}</t>
-  </si>
-  <si>
-    <t>איפה מתרחשים התחביבים של {}</t>
-  </si>
-  <si>
-    <t>מה מבנה הגוף של {}</t>
-  </si>
-  <si>
-    <t>מה רמת האינטליגנציה של {}</t>
-  </si>
-  <si>
     <t>question_heb_max_min_ideal</t>
+  </si>
+  <si>
+    <t>טוב</t>
+  </si>
+  <si>
+    <t>זקן</t>
+  </si>
+  <si>
+    <t>שמח</t>
+  </si>
+  <si>
+    <t>מוזר</t>
+  </si>
+  <si>
+    <t>יפה</t>
+  </si>
+  <si>
+    <t>מעניין</t>
+  </si>
+  <si>
+    <t>משוגע</t>
+  </si>
+  <si>
+    <t>חשוב</t>
+  </si>
+  <si>
+    <t>מהמם</t>
+  </si>
+  <si>
+    <t>רע</t>
+  </si>
+  <si>
+    <t>צעיר</t>
+  </si>
+  <si>
+    <t>עצוב</t>
+  </si>
+  <si>
+    <t>נורמלי</t>
+  </si>
+  <si>
+    <t>מכוער</t>
+  </si>
+  <si>
+    <t>משעמם</t>
+  </si>
+  <si>
+    <t>שפוי</t>
+  </si>
+  <si>
+    <t>זניח</t>
+  </si>
+  <si>
+    <t>לא מרשים</t>
+  </si>
+  <si>
+    <t>goodness</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>happiness</t>
+  </si>
+  <si>
+    <t>normality</t>
+  </si>
+  <si>
+    <t>appearnce</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>sainity</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>מידת הטוב</t>
+  </si>
+  <si>
+    <t>גיל</t>
+  </si>
+  <si>
+    <t>רגש אופייני</t>
+  </si>
+  <si>
+    <t>מוזרות</t>
+  </si>
+  <si>
+    <t>מידת העניין</t>
+  </si>
+  <si>
+    <t>שפויות</t>
+  </si>
+  <si>
+    <t>חשיבות</t>
+  </si>
+  <si>
+    <t>רושם</t>
+  </si>
+  <si>
+    <t>מראה חיצוני</t>
+  </si>
+  <si>
+    <t>משולש-ריבוע</t>
+  </si>
+  <si>
+    <t>טעם</t>
+  </si>
+  <si>
+    <t>מספר</t>
+  </si>
+  <si>
+    <t>shapes-1</t>
+  </si>
+  <si>
+    <t>shapes-2</t>
+  </si>
+  <si>
+    <t>signs-1</t>
+  </si>
+  <si>
+    <t>drink-1</t>
+  </si>
+  <si>
+    <t>drink-2</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>symbols</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>עיגול-מעויין</t>
+  </si>
+  <si>
+    <t>לא ברור</t>
+  </si>
+  <si>
+    <t>משקה חם</t>
+  </si>
+  <si>
+    <t>משקה קר</t>
+  </si>
+  <si>
+    <t>סמל</t>
+  </si>
+  <si>
+    <t>דפוס</t>
+  </si>
+  <si>
+    <t>משולש</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>עיגול</t>
+  </si>
+  <si>
+    <t>מעוין</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>מה הצורה המועדפת עליך?</t>
+  </si>
+  <si>
+    <t>איזה סימן אתה מעדיף?</t>
+  </si>
+  <si>
+    <t>מה המשקה החם המועדף עליך?</t>
+  </si>
+  <si>
+    <t>מה המשקה הקר המועדף עליך?</t>
+  </si>
+  <si>
+    <t>מה הטעם המועדף עליך?</t>
+  </si>
+  <si>
+    <t>איזה סמל אתה מעדיף?</t>
+  </si>
+  <si>
+    <t>איזה מספרים אתה מעדיף?</t>
+  </si>
+  <si>
+    <t>מה הוא הדפוס המועדף עליך?</t>
+  </si>
+  <si>
+    <t>מה הצורה המועדפת על {}?</t>
+  </si>
+  <si>
+    <t>איזה סימן {} מעדיף?</t>
+  </si>
+  <si>
+    <t>מה המשקה החם המועדף על {}?</t>
+  </si>
+  <si>
+    <t>מה המשקה הקר המועדף על {}?</t>
+  </si>
+  <si>
+    <t>מה הטעם המועדף על {}?</t>
+  </si>
+  <si>
+    <t>איזה סמל {} מעדיף?</t>
+  </si>
+  <si>
+    <t>איזה מספרים {} מעדיף?</t>
+  </si>
+  <si>
+    <t>מה הוא הדפוס המועדף על {}?</t>
+  </si>
+  <si>
+    <t>()()()</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&lt;</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>political_affiliation</t>
+  </si>
+  <si>
+    <t>hobbies</t>
+  </si>
+  <si>
+    <t>body_size</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>way_of_speech</t>
+  </si>
+  <si>
+    <t>socio_economic</t>
+  </si>
+  <si>
+    <t>ethnicity_skin_color</t>
+  </si>
+  <si>
+    <t>personality</t>
+  </si>
+  <si>
+    <t>dress_propeties</t>
+  </si>
+  <si>
+    <t>רמה שפתית</t>
+  </si>
+  <si>
+    <t>מעמד סוציו-אקונומי</t>
+  </si>
+  <si>
+    <t>צבע עור</t>
+  </si>
+  <si>
+    <t>אישיות</t>
+  </si>
+  <si>
+    <t>לבוש</t>
+  </si>
+  <si>
+    <t>כהה מאוד</t>
+  </si>
+  <si>
+    <t>מבנה גוף גדול</t>
+  </si>
+  <si>
+    <t>מבנה גוף קטן</t>
+  </si>
+  <si>
+    <t>פעילויות בית</t>
+  </si>
+  <si>
+    <t>פעילויות חוץ</t>
+  </si>
+  <si>
+    <t>מעמד סוציו-אקונומי גבוה</t>
+  </si>
+  <si>
+    <t>מעמד סוציו-אקונומי נמוך</t>
+  </si>
+  <si>
+    <t>מופנמות</t>
+  </si>
+  <si>
+    <t>מוחצנות</t>
+  </si>
+  <si>
+    <t>לבוש יומיומי</t>
+  </si>
+  <si>
+    <t>לבוש אלגנטי</t>
+  </si>
+  <si>
+    <t>שפה גבוהה</t>
+  </si>
+  <si>
+    <t>שפה יומיומית</t>
+  </si>
+  <si>
+    <t>בהיר מאוד</t>
+  </si>
+  <si>
+    <t>ימנית ביותר</t>
+  </si>
+  <si>
+    <t>שמאלנית ביותר</t>
+  </si>
+  <si>
+    <t>אינטליגנציה גבוהה ביותר</t>
+  </si>
+  <si>
+    <t>אינטיליגנציה רגילה</t>
+  </si>
+  <si>
+    <t>תאר את התחביבים שלך</t>
+  </si>
+  <si>
+    <t>תאר את התחביבים של {}</t>
+  </si>
+  <si>
+    <t>תאר את המעמד הסוציו אקונומי שלך</t>
+  </si>
+  <si>
+    <t>תאר את המעמד הסוציו אקונומי של {}</t>
+  </si>
+  <si>
+    <t>תאר את האישיות שלך</t>
+  </si>
+  <si>
+    <t>תאר את האישיות של {}</t>
+  </si>
+  <si>
+    <t>תאר את מבנה הגוף שלך</t>
+  </si>
+  <si>
+    <t>תאר את מבנה הגוף של {}</t>
+  </si>
+  <si>
+    <t>תאר את צבע העור שלך</t>
+  </si>
+  <si>
+    <t>תאר את צבע העור של {}</t>
+  </si>
+  <si>
+    <t>תאר את הלבוש האופייני של {}</t>
+  </si>
+  <si>
+    <t>תאר את הלבוש האופייני שלך</t>
+  </si>
+  <si>
+    <t>תאר את בשימוש שלך בשפה</t>
+  </si>
+  <si>
+    <t>תאר את בשימוש של {} בשפה</t>
+  </si>
+  <si>
+    <t>תאר את ההעדפה הפוליטית שלך</t>
+  </si>
+  <si>
+    <t>תאר את ההעדפה הפוליטית של {}</t>
+  </si>
+  <si>
+    <t>תאר את האינטליגנציה שלך</t>
+  </si>
+  <si>
+    <t>תאר את האינטליגנציה של {}</t>
+  </si>
+  <si>
+    <t>תאר את מידת הטוב שלך?</t>
+  </si>
+  <si>
+    <t>תאר את מידת הטוב של {}?</t>
+  </si>
+  <si>
+    <t>תאר את הגיל שלך?</t>
+  </si>
+  <si>
+    <t>תאר את הגיל של {}?</t>
+  </si>
+  <si>
+    <t>תאר את הרגש אליו אתה נוטה?</t>
+  </si>
+  <si>
+    <t>תאר את הרגש אליו {}  נוטה?</t>
+  </si>
+  <si>
+    <t>תאר את מידת הנורמליות שלך?</t>
+  </si>
+  <si>
+    <t>תאר את מידת הנורמליות של {}?</t>
+  </si>
+  <si>
+    <t>תאר את המראה החיצוני שלך?</t>
+  </si>
+  <si>
+    <t>תאר את המראה החיצוני של {}?</t>
+  </si>
+  <si>
+    <t>תאר עד כמה {} נחשב למעורר עניין?</t>
+  </si>
+  <si>
+    <t>תאר עד כמה אתה נחשב למעורר עניין?</t>
+  </si>
+  <si>
+    <t>תאר את מידת השפיות שלך?</t>
+  </si>
+  <si>
+    <t>תאר את מידת השפיות {}?</t>
+  </si>
+  <si>
+    <t>תאר את מידת החשיבות של {}?</t>
+  </si>
+  <si>
+    <t>תאר את מידת החשיבות שלך?</t>
+  </si>
+  <si>
+    <t>תאר את הרושם שאתה מותיר?</t>
+  </si>
+  <si>
+    <t>תאר את הרושם ש{} מותיר?</t>
   </si>
 </sst>
 </file>
@@ -230,9 +578,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,11 +863,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -528,9 +876,9 @@
     <col min="6" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -545,217 +893,632 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D9305-3561-44F0-ADA0-36CEEEFB7BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C43EC9-2C8A-4382-8F1A-33809E5C6CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,33 +195,6 @@
     <t>מספר</t>
   </si>
   <si>
-    <t>shapes-1</t>
-  </si>
-  <si>
-    <t>shapes-2</t>
-  </si>
-  <si>
-    <t>signs-1</t>
-  </si>
-  <si>
-    <t>drink-1</t>
-  </si>
-  <si>
-    <t>drink-2</t>
-  </si>
-  <si>
-    <t>taste</t>
-  </si>
-  <si>
-    <t>symbols</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
     <t>עיגול-מעויין</t>
   </si>
   <si>
@@ -535,13 +508,40 @@
   </si>
   <si>
     <t>תאר את הרושם ש{} מותיר?</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +553,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -865,18 +871,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,214 +908,214 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1124,13 +1132,13 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1147,13 +1155,13 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1170,13 +1178,13 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1193,13 +1201,13 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1216,13 +1224,13 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1239,13 +1247,13 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1262,13 +1270,13 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1285,13 +1293,13 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1308,220 +1316,221 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="F20" t="s">
-        <v>78</v>
-      </c>
       <c r="G20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C43EC9-2C8A-4382-8F1A-33809E5C6CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD03E8-C748-47B8-8213-50B395E9031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="170">
   <si>
     <t>feature</t>
   </si>
@@ -168,9 +168,6 @@
     <t>רגש אופייני</t>
   </si>
   <si>
-    <t>מוזרות</t>
-  </si>
-  <si>
     <t>מידת העניין</t>
   </si>
   <si>
@@ -213,18 +210,6 @@
     <t>דפוס</t>
   </si>
   <si>
-    <t>משולש</t>
-  </si>
-  <si>
-    <t>ריבוע</t>
-  </si>
-  <si>
-    <t>עיגול</t>
-  </si>
-  <si>
-    <t>מעוין</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -291,9 +276,6 @@
     <t>מה הוא הדפוס המועדף על {}?</t>
   </si>
   <si>
-    <t>()()()</t>
-  </si>
-  <si>
     <t>&lt;&gt;</t>
   </si>
   <si>
@@ -535,13 +517,40 @@
   </si>
   <si>
     <t>c9</t>
+  </si>
+  <si>
+    <t>✤</t>
+  </si>
+  <si>
+    <t>✳</t>
+  </si>
+  <si>
+    <t>♠</t>
+  </si>
+  <si>
+    <t>♣</t>
+  </si>
+  <si>
+    <t>◇</t>
+  </si>
+  <si>
+    <t>*#**#*#**#</t>
+  </si>
+  <si>
+    <t>**#**#*#*#</t>
+  </si>
+  <si>
+    <t>נורמליות</t>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +568,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,16 +607,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -871,20 +900,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,214 +937,214 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1132,13 +1161,13 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1149,19 +1178,19 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1178,13 +1207,13 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1201,13 +1230,13 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1244,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1224,13 +1253,13 @@
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1238,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -1247,13 +1276,13 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1290,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -1270,13 +1299,13 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1313,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -1293,13 +1322,13 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1307,226 +1336,226 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
         <v>166</v>
       </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD03E8-C748-47B8-8213-50B395E9031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02EF48-878E-4802-A991-B756C3EC04C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="219">
   <si>
     <t>feature</t>
   </si>
@@ -72,12 +72,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>question_heb</t>
-  </si>
-  <si>
-    <t>question_heb_max_min_ideal</t>
-  </si>
-  <si>
     <t>טוב</t>
   </si>
   <si>
@@ -159,15 +153,9 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>מידת הטוב</t>
-  </si>
-  <si>
     <t>גיל</t>
   </si>
   <si>
-    <t>רגש אופייני</t>
-  </si>
-  <si>
     <t>מידת העניין</t>
   </si>
   <si>
@@ -183,33 +171,6 @@
     <t>מראה חיצוני</t>
   </si>
   <si>
-    <t>משולש-ריבוע</t>
-  </si>
-  <si>
-    <t>טעם</t>
-  </si>
-  <si>
-    <t>מספר</t>
-  </si>
-  <si>
-    <t>עיגול-מעויין</t>
-  </si>
-  <si>
-    <t>לא ברור</t>
-  </si>
-  <si>
-    <t>משקה חם</t>
-  </si>
-  <si>
-    <t>משקה קר</t>
-  </si>
-  <si>
-    <t>סמל</t>
-  </si>
-  <si>
-    <t>דפוס</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -228,54 +189,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>מה הצורה המועדפת עליך?</t>
-  </si>
-  <si>
-    <t>איזה סימן אתה מעדיף?</t>
-  </si>
-  <si>
-    <t>מה המשקה החם המועדף עליך?</t>
-  </si>
-  <si>
-    <t>מה המשקה הקר המועדף עליך?</t>
-  </si>
-  <si>
-    <t>מה הטעם המועדף עליך?</t>
-  </si>
-  <si>
-    <t>איזה סמל אתה מעדיף?</t>
-  </si>
-  <si>
-    <t>איזה מספרים אתה מעדיף?</t>
-  </si>
-  <si>
-    <t>מה הוא הדפוס המועדף עליך?</t>
-  </si>
-  <si>
-    <t>מה הצורה המועדפת על {}?</t>
-  </si>
-  <si>
-    <t>איזה סימן {} מעדיף?</t>
-  </si>
-  <si>
-    <t>מה המשקה החם המועדף על {}?</t>
-  </si>
-  <si>
-    <t>מה המשקה הקר המועדף על {}?</t>
-  </si>
-  <si>
-    <t>מה הטעם המועדף על {}?</t>
-  </si>
-  <si>
-    <t>איזה סמל {} מעדיף?</t>
-  </si>
-  <si>
-    <t>איזה מספרים {} מעדיף?</t>
-  </si>
-  <si>
-    <t>מה הוא הדפוס המועדף על {}?</t>
-  </si>
-  <si>
     <t>&lt;&gt;</t>
   </si>
   <si>
@@ -438,60 +351,6 @@
     <t>תאר את האינטליגנציה של {}</t>
   </si>
   <si>
-    <t>תאר את מידת הטוב שלך?</t>
-  </si>
-  <si>
-    <t>תאר את מידת הטוב של {}?</t>
-  </si>
-  <si>
-    <t>תאר את הגיל שלך?</t>
-  </si>
-  <si>
-    <t>תאר את הגיל של {}?</t>
-  </si>
-  <si>
-    <t>תאר את הרגש אליו אתה נוטה?</t>
-  </si>
-  <si>
-    <t>תאר את הרגש אליו {}  נוטה?</t>
-  </si>
-  <si>
-    <t>תאר את מידת הנורמליות שלך?</t>
-  </si>
-  <si>
-    <t>תאר את מידת הנורמליות של {}?</t>
-  </si>
-  <si>
-    <t>תאר את המראה החיצוני שלך?</t>
-  </si>
-  <si>
-    <t>תאר את המראה החיצוני של {}?</t>
-  </si>
-  <si>
-    <t>תאר עד כמה {} נחשב למעורר עניין?</t>
-  </si>
-  <si>
-    <t>תאר עד כמה אתה נחשב למעורר עניין?</t>
-  </si>
-  <si>
-    <t>תאר את מידת השפיות שלך?</t>
-  </si>
-  <si>
-    <t>תאר את מידת השפיות {}?</t>
-  </si>
-  <si>
-    <t>תאר את מידת החשיבות של {}?</t>
-  </si>
-  <si>
-    <t>תאר את מידת החשיבות שלך?</t>
-  </si>
-  <si>
-    <t>תאר את הרושם שאתה מותיר?</t>
-  </si>
-  <si>
-    <t>תאר את הרושם ש{} מותיר?</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
@@ -534,16 +393,304 @@
     <t>◇</t>
   </si>
   <si>
-    <t>*#**#*#**#</t>
-  </si>
-  <si>
-    <t>**#**#*#*#</t>
-  </si>
-  <si>
     <t>נורמליות</t>
   </si>
   <si>
     <t>〇</t>
+  </si>
+  <si>
+    <t>/||\</t>
+  </si>
+  <si>
+    <t>|=|</t>
+  </si>
+  <si>
+    <t>/||\ -- |=|</t>
+  </si>
+  <si>
+    <t>✳ -- ✤</t>
+  </si>
+  <si>
+    <t># -- @</t>
+  </si>
+  <si>
+    <t>&amp; -- []</t>
+  </si>
+  <si>
+    <t>~ -- *</t>
+  </si>
+  <si>
+    <t>&lt;&gt; -- &gt;&lt;</t>
+  </si>
+  <si>
+    <t>() -- {}</t>
+  </si>
+  <si>
+    <t>◇ -- 〇</t>
+  </si>
+  <si>
+    <t>♠ -- ♣</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף ♠ או ♣?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף 〇 או ◇?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף {} או ()?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף &gt;&lt; או &lt;&gt;?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף * או ~?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף [] או &amp;?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף @ או #?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף ✤ או ✳?</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף |=| או /||\?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף ♠ או ♣?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף 〇 או ◇?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף {} או ()?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף &gt;&lt; או &lt;&gt;?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף * או ~?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף [] או &amp;?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף @ או #?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף ✤ או ✳?</t>
+  </si>
+  <si>
+    <t>עד כמה {} יעדיף |=| או /||\?</t>
+  </si>
+  <si>
+    <t>מידת הטוּב</t>
+  </si>
+  <si>
+    <t>רגש דומיננטי</t>
+  </si>
+  <si>
+    <t>question_heb_male</t>
+  </si>
+  <si>
+    <t>question_heb_female</t>
+  </si>
+  <si>
+    <t>תארי את בשימוש שלך בשפה</t>
+  </si>
+  <si>
+    <t>תארי את המעמד הסוציו אקונומי שלך</t>
+  </si>
+  <si>
+    <t>תארי את צבע העור שלך</t>
+  </si>
+  <si>
+    <t>תארי את האישיות שלך</t>
+  </si>
+  <si>
+    <t>תארי את הלבוש האופייני שלך</t>
+  </si>
+  <si>
+    <t>תארי את ההעדפה הפוליטית שלך</t>
+  </si>
+  <si>
+    <t>תארי את התחביבים שלך</t>
+  </si>
+  <si>
+    <t>תארי את מבנה הגוף שלך</t>
+  </si>
+  <si>
+    <t>תארי את האינטליגנציה שלך</t>
+  </si>
+  <si>
+    <t>תארי את מידת הטוּב שלך</t>
+  </si>
+  <si>
+    <t>תארי את הגיל שלך</t>
+  </si>
+  <si>
+    <t>תארי את הרגש הדומיננטי שלך</t>
+  </si>
+  <si>
+    <t>תארי עד כמה את נורמלית</t>
+  </si>
+  <si>
+    <t>תארי את המראה החיצוני שלך</t>
+  </si>
+  <si>
+    <t>תארי עד כמה את נחשבת למעוררת עניין</t>
+  </si>
+  <si>
+    <t>תארי עד כמה את שפויה</t>
+  </si>
+  <si>
+    <t>תארי עד כמה את חשובה</t>
+  </si>
+  <si>
+    <t>תארי את הרושם שאת מותירה</t>
+  </si>
+  <si>
+    <t>תאר את הרושם שאתה מותיר</t>
+  </si>
+  <si>
+    <t>תאר עד כמה אתה חשוב</t>
+  </si>
+  <si>
+    <t>תאר עד כמה אתה שפוי</t>
+  </si>
+  <si>
+    <t>תאר עד כמה אתה נחשב למעורר עניין</t>
+  </si>
+  <si>
+    <t>תאר את המראה החיצוני שלך</t>
+  </si>
+  <si>
+    <t>תאר עד כמה אתה נורמלי</t>
+  </si>
+  <si>
+    <t>תאר את הרגש הדומיננטי שלך</t>
+  </si>
+  <si>
+    <t>תאר את הגיל שלך</t>
+  </si>
+  <si>
+    <t>תאר את מידת הטוּב שלך</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה ♠ או ♣?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה 〇 או ◇?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה {} או ()?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה * או ~?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה [] או &amp;?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה @ או #?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה ✤ או ✳?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה |=| או /||\?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה &gt;&lt; או &lt;&gt;?</t>
+  </si>
+  <si>
+    <t>תאר את מידת הטוּב של {}</t>
+  </si>
+  <si>
+    <t>תאר את הגיל של {}</t>
+  </si>
+  <si>
+    <t>תאר את הרגש הדומיננטי של {}</t>
+  </si>
+  <si>
+    <t>תאר עד כמה {} נורמלי</t>
+  </si>
+  <si>
+    <t>תאר את המראה החיצוני של {}</t>
+  </si>
+  <si>
+    <t>תאר עד כמה {} נחשב.ת למעורר עניין</t>
+  </si>
+  <si>
+    <t>תאר עד כמה {} שפוי.ה</t>
+  </si>
+  <si>
+    <t>תאר את הרושם ש{} מותיר.ה</t>
+  </si>
+  <si>
+    <t>question_heb_max_min_ideal_male</t>
+  </si>
+  <si>
+    <t>question_heb_max_min_ideal_female</t>
+  </si>
+  <si>
+    <t>תארי את בשימוש של {} בשפה</t>
+  </si>
+  <si>
+    <t>תארי את המעמד הסוציו אקונומי של {}</t>
+  </si>
+  <si>
+    <t>תארי את צבע העור של {}</t>
+  </si>
+  <si>
+    <t>תארי את האישיות של {}</t>
+  </si>
+  <si>
+    <t>תארי את הלבוש האופייני של {}</t>
+  </si>
+  <si>
+    <t>תארי את ההעדפה הפוליטית של {}</t>
+  </si>
+  <si>
+    <t>תארי את התחביבים של {}</t>
+  </si>
+  <si>
+    <t>תארי את מבנה הגוף של {}</t>
+  </si>
+  <si>
+    <t>תארי את האינטליגנציה של {}</t>
+  </si>
+  <si>
+    <t>תארי את מידת הטוּב של {}</t>
+  </si>
+  <si>
+    <t>תארי את הגיל של {}</t>
+  </si>
+  <si>
+    <t>תארי את הרגש הדומיננטי של {}</t>
+  </si>
+  <si>
+    <t>תארי עד כמה {} נורמלי</t>
+  </si>
+  <si>
+    <t>תארי את המראה החיצוני של {}</t>
+  </si>
+  <si>
+    <t>תארי עד כמה {} נחשב.ת למעורר עניין</t>
+  </si>
+  <si>
+    <t>תארי עד כמה {} שפוי.ה</t>
+  </si>
+  <si>
+    <t>תארי עד כמה {} חשוב.ה</t>
+  </si>
+  <si>
+    <t>תאר עד כמה {} חשוב.ה</t>
+  </si>
+  <si>
+    <t>תארי את הרושם ש{} מותיר.ה</t>
   </si>
 </sst>
 </file>
@@ -898,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,10 +1057,12 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,632 +1079,800 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="H18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="H19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="H26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="H27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>188</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02EF48-878E-4802-A991-B756C3EC04C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE6433-07D6-415E-BA16-07972CB231CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="211">
   <si>
     <t>feature</t>
   </si>
@@ -405,33 +405,6 @@
     <t>|=|</t>
   </si>
   <si>
-    <t>/||\ -- |=|</t>
-  </si>
-  <si>
-    <t>✳ -- ✤</t>
-  </si>
-  <si>
-    <t># -- @</t>
-  </si>
-  <si>
-    <t>&amp; -- []</t>
-  </si>
-  <si>
-    <t>~ -- *</t>
-  </si>
-  <si>
-    <t>&lt;&gt; -- &gt;&lt;</t>
-  </si>
-  <si>
-    <t>() -- {}</t>
-  </si>
-  <si>
-    <t>◇ -- 〇</t>
-  </si>
-  <si>
-    <t>♠ -- ♣</t>
-  </si>
-  <si>
     <t>עד כמה אתה מעדיף ♠ או ♣?</t>
   </si>
   <si>
@@ -691,6 +664,9 @@
   </si>
   <si>
     <t>תארי את הרושם ש{} מותיר.ה</t>
+  </si>
+  <si>
+    <t>העדפת צורה</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,16 +1055,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -1112,13 +1088,13 @@
         <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1141,13 +1117,13 @@
         <v>89</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1170,13 +1146,13 @@
         <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1199,13 +1175,13 @@
         <v>91</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,13 +1204,13 @@
         <v>98</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1257,13 +1233,13 @@
         <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1286,13 +1262,13 @@
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1315,13 +1291,13 @@
         <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
         <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1344,13 +1320,13 @@
         <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
         <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1361,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1370,16 +1346,16 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1399,16 +1375,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1428,16 +1404,16 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1457,16 +1433,16 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1486,16 +1462,16 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I15" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1515,16 +1491,16 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,16 +1520,16 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1573,16 +1549,16 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I18" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1602,16 +1578,16 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I19" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1622,7 +1598,7 @@
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
         <v>116</v>
@@ -1631,16 +1607,16 @@
         <v>117</v>
       </c>
       <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="G20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" t="s">
-        <v>141</v>
-      </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1651,7 +1627,7 @@
         <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>118</v>
@@ -1660,16 +1636,16 @@
         <v>120</v>
       </c>
       <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" t="s">
         <v>133</v>
       </c>
-      <c r="G21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" t="s">
-        <v>142</v>
-      </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1680,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -1689,16 +1665,16 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" t="s">
         <v>134</v>
       </c>
-      <c r="G22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" t="s">
-        <v>143</v>
-      </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1709,7 +1685,7 @@
         <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -1718,16 +1694,16 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" t="s">
         <v>135</v>
       </c>
-      <c r="G23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" t="s">
-        <v>144</v>
-      </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,7 +1714,7 @@
         <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
@@ -1747,16 +1723,16 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
         <v>136</v>
       </c>
-      <c r="G24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" t="s">
-        <v>145</v>
-      </c>
       <c r="I24" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1767,7 +1743,7 @@
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -1776,16 +1752,16 @@
         <v>54</v>
       </c>
       <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" t="s">
         <v>137</v>
       </c>
-      <c r="G25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" t="s">
-        <v>146</v>
-      </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1796,7 +1772,7 @@
         <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -1805,16 +1781,16 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" t="s">
         <v>138</v>
       </c>
-      <c r="G26" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" t="s">
-        <v>147</v>
-      </c>
       <c r="I26" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1825,7 +1801,7 @@
         <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="D27" t="s">
         <v>115</v>
@@ -1834,16 +1810,16 @@
         <v>114</v>
       </c>
       <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
         <v>139</v>
       </c>
-      <c r="G27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" t="s">
-        <v>148</v>
-      </c>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1854,7 +1830,7 @@
         <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D28" t="s">
         <v>121</v>
@@ -1863,16 +1839,16 @@
         <v>122</v>
       </c>
       <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" t="s">
         <v>140</v>
       </c>
-      <c r="G28" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" t="s">
-        <v>149</v>
-      </c>
       <c r="I28" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE6433-07D6-415E-BA16-07972CB231CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9922EFE-B8CD-45D3-9EC1-4D02733C8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="188">
   <si>
     <t>feature</t>
   </si>
@@ -297,60 +297,6 @@
     <t>אינטיליגנציה רגילה</t>
   </si>
   <si>
-    <t>תאר את התחביבים שלך</t>
-  </si>
-  <si>
-    <t>תאר את התחביבים של {}</t>
-  </si>
-  <si>
-    <t>תאר את המעמד הסוציו אקונומי שלך</t>
-  </si>
-  <si>
-    <t>תאר את המעמד הסוציו אקונומי של {}</t>
-  </si>
-  <si>
-    <t>תאר את האישיות שלך</t>
-  </si>
-  <si>
-    <t>תאר את האישיות של {}</t>
-  </si>
-  <si>
-    <t>תאר את מבנה הגוף שלך</t>
-  </si>
-  <si>
-    <t>תאר את מבנה הגוף של {}</t>
-  </si>
-  <si>
-    <t>תאר את צבע העור שלך</t>
-  </si>
-  <si>
-    <t>תאר את צבע העור של {}</t>
-  </si>
-  <si>
-    <t>תאר את הלבוש האופייני של {}</t>
-  </si>
-  <si>
-    <t>תאר את הלבוש האופייני שלך</t>
-  </si>
-  <si>
-    <t>תאר את בשימוש שלך בשפה</t>
-  </si>
-  <si>
-    <t>תאר את בשימוש של {} בשפה</t>
-  </si>
-  <si>
-    <t>תאר את ההעדפה הפוליטית שלך</t>
-  </si>
-  <si>
-    <t>תאר את ההעדפה הפוליטית של {}</t>
-  </si>
-  <si>
-    <t>תאר את האינטליגנציה שלך</t>
-  </si>
-  <si>
-    <t>תאר את האינטליגנציה של {}</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
@@ -405,60 +351,6 @@
     <t>|=|</t>
   </si>
   <si>
-    <t>עד כמה אתה מעדיף ♠ או ♣?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף 〇 או ◇?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף {} או ()?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף &gt;&lt; או &lt;&gt;?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף * או ~?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף [] או &amp;?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף @ או #?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף ✤ או ✳?</t>
-  </si>
-  <si>
-    <t>עד כמה אתה מעדיף |=| או /||\?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף ♠ או ♣?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף 〇 או ◇?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף {} או ()?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף &gt;&lt; או &lt;&gt;?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף * או ~?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף [] או &amp;?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף @ או #?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף ✤ או ✳?</t>
-  </si>
-  <si>
-    <t>עד כמה {} יעדיף |=| או /||\?</t>
-  </si>
-  <si>
     <t>מידת הטוּב</t>
   </si>
   <si>
@@ -471,202 +363,241 @@
     <t>question_heb_female</t>
   </si>
   <si>
-    <t>תארי את בשימוש שלך בשפה</t>
-  </si>
-  <si>
-    <t>תארי את המעמד הסוציו אקונומי שלך</t>
-  </si>
-  <si>
-    <t>תארי את צבע העור שלך</t>
-  </si>
-  <si>
-    <t>תארי את האישיות שלך</t>
-  </si>
-  <si>
-    <t>תארי את הלבוש האופייני שלך</t>
-  </si>
-  <si>
-    <t>תארי את ההעדפה הפוליטית שלך</t>
-  </si>
-  <si>
-    <t>תארי את התחביבים שלך</t>
-  </si>
-  <si>
-    <t>תארי את מבנה הגוף שלך</t>
-  </si>
-  <si>
-    <t>תארי את האינטליגנציה שלך</t>
-  </si>
-  <si>
-    <t>תארי את מידת הטוּב שלך</t>
-  </si>
-  <si>
-    <t>תארי את הגיל שלך</t>
-  </si>
-  <si>
-    <t>תארי את הרגש הדומיננטי שלך</t>
-  </si>
-  <si>
-    <t>תארי עד כמה את נורמלית</t>
-  </si>
-  <si>
-    <t>תארי את המראה החיצוני שלך</t>
-  </si>
-  <si>
-    <t>תארי עד כמה את נחשבת למעוררת עניין</t>
-  </si>
-  <si>
-    <t>תארי עד כמה את שפויה</t>
-  </si>
-  <si>
-    <t>תארי עד כמה את חשובה</t>
-  </si>
-  <si>
-    <t>תארי את הרושם שאת מותירה</t>
-  </si>
-  <si>
-    <t>תאר את הרושם שאתה מותיר</t>
-  </si>
-  <si>
-    <t>תאר עד כמה אתה חשוב</t>
-  </si>
-  <si>
-    <t>תאר עד כמה אתה שפוי</t>
-  </si>
-  <si>
-    <t>תאר עד כמה אתה נחשב למעורר עניין</t>
-  </si>
-  <si>
-    <t>תאר את המראה החיצוני שלך</t>
-  </si>
-  <si>
-    <t>תאר עד כמה אתה נורמלי</t>
-  </si>
-  <si>
-    <t>תאר את הרגש הדומיננטי שלך</t>
-  </si>
-  <si>
-    <t>תאר את הגיל שלך</t>
-  </si>
-  <si>
-    <t>תאר את מידת הטוּב שלך</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה ♠ או ♣?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה 〇 או ◇?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה {} או ()?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה * או ~?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה [] או &amp;?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה @ או #?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה ✤ או ✳?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה |=| או /||\?</t>
-  </si>
-  <si>
-    <t>עד כמה את מעדיפה &gt;&lt; או &lt;&gt;?</t>
-  </si>
-  <si>
-    <t>תאר את מידת הטוּב של {}</t>
-  </si>
-  <si>
-    <t>תאר את הגיל של {}</t>
-  </si>
-  <si>
-    <t>תאר את הרגש הדומיננטי של {}</t>
-  </si>
-  <si>
-    <t>תאר עד כמה {} נורמלי</t>
-  </si>
-  <si>
-    <t>תאר את המראה החיצוני של {}</t>
-  </si>
-  <si>
-    <t>תאר עד כמה {} נחשב.ת למעורר עניין</t>
-  </si>
-  <si>
-    <t>תאר עד כמה {} שפוי.ה</t>
-  </si>
-  <si>
-    <t>תאר את הרושם ש{} מותיר.ה</t>
-  </si>
-  <si>
     <t>question_heb_max_min_ideal_male</t>
   </si>
   <si>
     <t>question_heb_max_min_ideal_female</t>
   </si>
   <si>
-    <t>תארי את בשימוש של {} בשפה</t>
-  </si>
-  <si>
-    <t>תארי את המעמד הסוציו אקונומי של {}</t>
-  </si>
-  <si>
-    <t>תארי את צבע העור של {}</t>
-  </si>
-  <si>
-    <t>תארי את האישיות של {}</t>
-  </si>
-  <si>
-    <t>תארי את הלבוש האופייני של {}</t>
-  </si>
-  <si>
-    <t>תארי את ההעדפה הפוליטית של {}</t>
-  </si>
-  <si>
-    <t>תארי את התחביבים של {}</t>
-  </si>
-  <si>
-    <t>תארי את מבנה הגוף של {}</t>
-  </si>
-  <si>
-    <t>תארי את האינטליגנציה של {}</t>
-  </si>
-  <si>
-    <t>תארי את מידת הטוּב של {}</t>
-  </si>
-  <si>
-    <t>תארי את הגיל של {}</t>
-  </si>
-  <si>
-    <t>תארי את הרגש הדומיננטי של {}</t>
-  </si>
-  <si>
-    <t>תארי עד כמה {} נורמלי</t>
-  </si>
-  <si>
-    <t>תארי את המראה החיצוני של {}</t>
-  </si>
-  <si>
-    <t>תארי עד כמה {} נחשב.ת למעורר עניין</t>
-  </si>
-  <si>
-    <t>תארי עד כמה {} שפוי.ה</t>
-  </si>
-  <si>
-    <t>תארי עד כמה {} חשוב.ה</t>
-  </si>
-  <si>
-    <t>תאר עד כמה {} חשוב.ה</t>
-  </si>
-  <si>
-    <t>תארי את הרושם ש{} מותיר.ה</t>
-  </si>
-  <si>
     <t>העדפת צורה</t>
+  </si>
+  <si>
+    <t>דרג את ההעדפה שלך?</t>
+  </si>
+  <si>
+    <t>דרג את בשימוש שלך בשפה</t>
+  </si>
+  <si>
+    <t>דרג את המעמד הסוציו אקונומי שלך</t>
+  </si>
+  <si>
+    <t>דרג את צבע העור שלך</t>
+  </si>
+  <si>
+    <t>דרג את האישיות שלך</t>
+  </si>
+  <si>
+    <t>דרג את הלבוש האופייני שלך</t>
+  </si>
+  <si>
+    <t>דרג את ההעדפה הפוליטית שלך</t>
+  </si>
+  <si>
+    <t>דרג את התחביבים שלך</t>
+  </si>
+  <si>
+    <t>דרג את מבנה הגוף שלך</t>
+  </si>
+  <si>
+    <t>דרג את האינטליגנציה שלך</t>
+  </si>
+  <si>
+    <t>דרג את מידת הטוּב שלך</t>
+  </si>
+  <si>
+    <t>דרג את הגיל שלך</t>
+  </si>
+  <si>
+    <t>דרג את הרגש הדומיננטי שלך</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה נורמלי</t>
+  </si>
+  <si>
+    <t>דרג את המראה החיצוני שלך</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה נחשב למעורר עניין</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה שפוי</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה חשוב</t>
+  </si>
+  <si>
+    <t>דרג את הרושם שאתה מותיר</t>
+  </si>
+  <si>
+    <t>דרגי את ההעדפה שלך?</t>
+  </si>
+  <si>
+    <t>דרגי את בשימוש שלך בשפה</t>
+  </si>
+  <si>
+    <t>דרגי את המעמד הסוציו אקונומי שלך</t>
+  </si>
+  <si>
+    <t>דרגי את צבע העור שלך</t>
+  </si>
+  <si>
+    <t>דרגי את האישיות שלך</t>
+  </si>
+  <si>
+    <t>דרגי את הלבוש האופייני שלך</t>
+  </si>
+  <si>
+    <t>דרגי את ההעדפה הפוליטית שלך</t>
+  </si>
+  <si>
+    <t>דרגי את התחביבים שלך</t>
+  </si>
+  <si>
+    <t>דרגי את מבנה הגוף שלך</t>
+  </si>
+  <si>
+    <t>דרגי את האינטליגנציה שלך</t>
+  </si>
+  <si>
+    <t>דרגי את מידת הטוּב שלך</t>
+  </si>
+  <si>
+    <t>דרגי את הגיל שלך</t>
+  </si>
+  <si>
+    <t>דרגי את הרגש הדומיננטי שלך</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה את נורמלית</t>
+  </si>
+  <si>
+    <t>דרגי את המראה החיצוני שלך</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה את נחשבת למעוררת עניין</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה את שפויה</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה את חשובה</t>
+  </si>
+  <si>
+    <t>דרגי את הרושם שאת מותירה</t>
+  </si>
+  <si>
+    <t>דרג את השימוש של {} בשפה</t>
+  </si>
+  <si>
+    <t>דרג את צבע העור של {}</t>
+  </si>
+  <si>
+    <t>דרג את המעמד הסוציו אקונומי של {}</t>
+  </si>
+  <si>
+    <t>דרג את האישיות של {}</t>
+  </si>
+  <si>
+    <t>דרג את הלבוש האופייני של {}</t>
+  </si>
+  <si>
+    <t>דרג את ההעדפה הפוליטית של {}</t>
+  </si>
+  <si>
+    <t>דרג את התחביבים של {}</t>
+  </si>
+  <si>
+    <t>דרג את מבנה הגוף של {}</t>
+  </si>
+  <si>
+    <t>דרג את האינטליגנציה של {}</t>
+  </si>
+  <si>
+    <t>דרג את מידת הטוּב של {}</t>
+  </si>
+  <si>
+    <t>דרג את הגיל של {}</t>
+  </si>
+  <si>
+    <t>דרג את הרגש הדומיננטי של {}</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} נורמלי</t>
+  </si>
+  <si>
+    <t>דרג את המראה החיצוני של {}</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} נחשב.ת למעורר עניין</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} שפוי.ה</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} חשוב.ה</t>
+  </si>
+  <si>
+    <t>דרג את הרושם ש{} מותיר.ה</t>
+  </si>
+  <si>
+    <t>דרגי את בשימוש של {} בשפה</t>
+  </si>
+  <si>
+    <t>דרג את ההעדפה של {}?</t>
+  </si>
+  <si>
+    <t>דרגי את ההעדפה של {}?</t>
+  </si>
+  <si>
+    <t>דרגי את המעמד הסוציו אקונומי של {}</t>
+  </si>
+  <si>
+    <t>דרגי את צבע העור של {}</t>
+  </si>
+  <si>
+    <t>דרגי את האישיות של {}</t>
+  </si>
+  <si>
+    <t>דרגי את הלבוש האופייני של {}</t>
+  </si>
+  <si>
+    <t>דרגי את ההעדפה הפוליטית של {}</t>
+  </si>
+  <si>
+    <t>דרגי את התחביבים של {}</t>
+  </si>
+  <si>
+    <t>דרגי את מבנה הגוף של {}</t>
+  </si>
+  <si>
+    <t>דרגי את האינטליגנציה של {}</t>
+  </si>
+  <si>
+    <t>דרגי את מידת הטוּב של {}</t>
+  </si>
+  <si>
+    <t>דרגי את הגיל של {}</t>
+  </si>
+  <si>
+    <t>דרגי את הרגש הדומיננטי של {}</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} נורמלי</t>
+  </si>
+  <si>
+    <t>דרגי את המראה החיצוני של {}</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} נחשב.ת למעורר עניין</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} שפוי.ה</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} חשוב.ה</t>
+  </si>
+  <si>
+    <t>דרגי את הרושם ש{} מותיר.ה</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,16 +986,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -1085,16 +1016,16 @@
         <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1114,16 +1045,16 @@
         <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1143,16 +1074,16 @@
         <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1172,16 +1103,16 @@
         <v>76</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1201,16 +1132,16 @@
         <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1230,16 +1161,16 @@
         <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1259,16 +1190,16 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1288,16 +1219,16 @@
         <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1317,16 +1248,16 @@
         <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1337,7 +1268,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1346,16 +1277,16 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1375,16 +1306,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,7 +1326,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1404,16 +1335,16 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1424,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1433,16 +1364,16 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,16 +1393,16 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1491,16 +1422,16 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1520,16 +1451,16 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
         <v>165</v>
       </c>
-      <c r="G17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" t="s">
-        <v>187</v>
-      </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1549,16 +1480,16 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,16 +1509,16 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,28 +1526,28 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1624,28 +1555,28 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,10 +1584,10 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -1665,16 +1596,16 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,10 +1613,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -1694,16 +1625,16 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1711,10 +1642,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
@@ -1723,16 +1654,16 @@
         <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1740,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
@@ -1752,16 +1683,16 @@
         <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1769,10 +1700,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
         <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>210</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -1781,16 +1712,16 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1798,28 +1729,28 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1827,28 +1758,28 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
         <v>131</v>
       </c>
-      <c r="G28" t="s">
-        <v>179</v>
-      </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/features.xlsx
+++ b/ipa_1_2/myUtils/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9922EFE-B8CD-45D3-9EC1-4D02733C8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B868DF-21BF-4FCF-8330-FD79E2F5B75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="187">
   <si>
     <t>feature</t>
   </si>
@@ -75,15 +75,9 @@
     <t>טוב</t>
   </si>
   <si>
-    <t>זקן</t>
-  </si>
-  <si>
     <t>שמח</t>
   </si>
   <si>
-    <t>מוזר</t>
-  </si>
-  <si>
     <t>יפה</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>חשוב</t>
   </si>
   <si>
-    <t>מהמם</t>
-  </si>
-  <si>
     <t>רע</t>
   </si>
   <si>
@@ -108,12 +99,6 @@
     <t>עצוב</t>
   </si>
   <si>
-    <t>נורמלי</t>
-  </si>
-  <si>
-    <t>מכוער</t>
-  </si>
-  <si>
     <t>משעמם</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t>מידת העניין</t>
   </si>
   <si>
-    <t>שפויות</t>
-  </si>
-  <si>
     <t>חשיבות</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>&amp;</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>()</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>~</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>political_affiliation</t>
   </si>
   <si>
@@ -228,9 +204,6 @@
     <t>dress_propeties</t>
   </si>
   <si>
-    <t>רמה שפתית</t>
-  </si>
-  <si>
     <t>מעמד סוציו-אקונומי</t>
   </si>
   <si>
@@ -258,18 +231,6 @@
     <t>פעילויות חוץ</t>
   </si>
   <si>
-    <t>מעמד סוציו-אקונומי גבוה</t>
-  </si>
-  <si>
-    <t>מעמד סוציו-אקונומי נמוך</t>
-  </si>
-  <si>
-    <t>מופנמות</t>
-  </si>
-  <si>
-    <t>מוחצנות</t>
-  </si>
-  <si>
     <t>לבוש יומיומי</t>
   </si>
   <si>
@@ -339,24 +300,12 @@
     <t>◇</t>
   </si>
   <si>
-    <t>נורמליות</t>
-  </si>
-  <si>
     <t>〇</t>
   </si>
   <si>
-    <t>/||\</t>
-  </si>
-  <si>
-    <t>|=|</t>
-  </si>
-  <si>
     <t>מידת הטוּב</t>
   </si>
   <si>
-    <t>רגש דומיננטי</t>
-  </si>
-  <si>
     <t>question_heb_male</t>
   </si>
   <si>
@@ -372,15 +321,6 @@
     <t>העדפת צורה</t>
   </si>
   <si>
-    <t>דרג את ההעדפה שלך?</t>
-  </si>
-  <si>
-    <t>דרג את בשימוש שלך בשפה</t>
-  </si>
-  <si>
-    <t>דרג את המעמד הסוציו אקונומי שלך</t>
-  </si>
-  <si>
     <t>דרג את צבע העור שלך</t>
   </si>
   <si>
@@ -408,33 +348,12 @@
     <t>דרג את הגיל שלך</t>
   </si>
   <si>
-    <t>דרג את הרגש הדומיננטי שלך</t>
-  </si>
-  <si>
-    <t>דרג עד כמה אתה נורמלי</t>
-  </si>
-  <si>
     <t>דרג את המראה החיצוני שלך</t>
   </si>
   <si>
-    <t>דרג עד כמה אתה נחשב למעורר עניין</t>
-  </si>
-  <si>
-    <t>דרג עד כמה אתה שפוי</t>
-  </si>
-  <si>
-    <t>דרג עד כמה אתה חשוב</t>
-  </si>
-  <si>
     <t>דרג את הרושם שאתה מותיר</t>
   </si>
   <si>
-    <t>דרגי את ההעדפה שלך?</t>
-  </si>
-  <si>
-    <t>דרגי את בשימוש שלך בשפה</t>
-  </si>
-  <si>
     <t>דרגי את המעמד הסוציו אקונומי שלך</t>
   </si>
   <si>
@@ -465,24 +384,9 @@
     <t>דרגי את הגיל שלך</t>
   </si>
   <si>
-    <t>דרגי את הרגש הדומיננטי שלך</t>
-  </si>
-  <si>
-    <t>דרגי עד כמה את נורמלית</t>
-  </si>
-  <si>
     <t>דרגי את המראה החיצוני שלך</t>
   </si>
   <si>
-    <t>דרגי עד כמה את נחשבת למעוררת עניין</t>
-  </si>
-  <si>
-    <t>דרגי עד כמה את שפויה</t>
-  </si>
-  <si>
-    <t>דרגי עד כמה את חשובה</t>
-  </si>
-  <si>
     <t>דרגי את הרושם שאת מותירה</t>
   </si>
   <si>
@@ -519,36 +423,15 @@
     <t>דרג את הגיל של {}</t>
   </si>
   <si>
-    <t>דרג את הרגש הדומיננטי של {}</t>
-  </si>
-  <si>
-    <t>דרג עד כמה {} נורמלי</t>
-  </si>
-  <si>
     <t>דרג את המראה החיצוני של {}</t>
   </si>
   <si>
-    <t>דרג עד כמה {} נחשב.ת למעורר עניין</t>
-  </si>
-  <si>
-    <t>דרג עד כמה {} שפוי.ה</t>
-  </si>
-  <si>
-    <t>דרג עד כמה {} חשוב.ה</t>
-  </si>
-  <si>
     <t>דרג את הרושם ש{} מותיר.ה</t>
   </si>
   <si>
     <t>דרגי את בשימוש של {} בשפה</t>
   </si>
   <si>
-    <t>דרג את ההעדפה של {}?</t>
-  </si>
-  <si>
-    <t>דרגי את ההעדפה של {}?</t>
-  </si>
-  <si>
     <t>דרגי את המעמד הסוציו אקונומי של {}</t>
   </si>
   <si>
@@ -579,25 +462,139 @@
     <t>דרגי את הגיל של {}</t>
   </si>
   <si>
-    <t>דרגי את הרגש הדומיננטי של {}</t>
-  </si>
-  <si>
-    <t>דרגי עד כמה {} נורמלי</t>
-  </si>
-  <si>
     <t>דרגי את המראה החיצוני של {}</t>
   </si>
   <si>
-    <t>דרגי עד כמה {} נחשב.ת למעורר עניין</t>
-  </si>
-  <si>
-    <t>דרגי עד כמה {} שפוי.ה</t>
-  </si>
-  <si>
-    <t>דרגי עד כמה {} חשוב.ה</t>
-  </si>
-  <si>
     <t>דרגי את הרושם ש{} מותיר.ה</t>
+  </si>
+  <si>
+    <t>דרג את השימוש שלך בשפה</t>
+  </si>
+  <si>
+    <t>דרגי את השימוש שלך בשפה</t>
+  </si>
+  <si>
+    <t>דרג את המעמד הסוציו-אקונומי שלך</t>
+  </si>
+  <si>
+    <t>מעמד גבוה</t>
+  </si>
+  <si>
+    <t>מעמד נמוך</t>
+  </si>
+  <si>
+    <t>שימוש בשפה</t>
+  </si>
+  <si>
+    <t>אישיות מופנמת</t>
+  </si>
+  <si>
+    <t>אישיות מוחצנת</t>
+  </si>
+  <si>
+    <t>מבוגר</t>
+  </si>
+  <si>
+    <t>דרג את מצב הרוח הכללי שלך</t>
+  </si>
+  <si>
+    <t>מצב רוח</t>
+  </si>
+  <si>
+    <t>רגיל</t>
+  </si>
+  <si>
+    <t>ייחודיות</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה אדם ייחודי</t>
+  </si>
+  <si>
+    <t>ייחודי</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה אדם מעניין</t>
+  </si>
+  <si>
+    <t>שפיות</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה אדם שפוי</t>
+  </si>
+  <si>
+    <t>דרג עד כמה אתה אדם חשוב</t>
+  </si>
+  <si>
+    <t>מדהים</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>❋</t>
+  </si>
+  <si>
+    <t>✾</t>
+  </si>
+  <si>
+    <t>דרגי את מצב הרוח הכללי שלך</t>
+  </si>
+  <si>
+    <t>דרגי את מצב הרוח הכללי של {}</t>
+  </si>
+  <si>
+    <t>דרג את מצב הרוח הכללי של {}</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה אתה אדם ייחודי</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} אדם ייחודי</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} אדם ייחודי</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה את נחשבת אדם מעניין</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} נחשב.ת אדם עניין</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} נחשב.ת אדם עניין</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה את אדם שפוי</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} אדם שפוי</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} אדם שפוי</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה את אדם חשוב</t>
+  </si>
+  <si>
+    <t>דרגי עד כמה {} אדם חשוב</t>
+  </si>
+  <si>
+    <t>דרג עד כמה {} אדם חשוב</t>
+  </si>
+  <si>
+    <t>דרג את ההעדפה שלך</t>
+  </si>
+  <si>
+    <t>דרגי את ההעדפה שלך</t>
+  </si>
+  <si>
+    <t>דרג את ההעדפה של {}</t>
+  </si>
+  <si>
+    <t>דרגי את ההעדפה של {}</t>
   </si>
 </sst>
 </file>
@@ -665,12 +662,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -954,22 +952,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,805 +984,809 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" t="s">
         <v>130</v>
       </c>
-      <c r="G19" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" t="s">
-        <v>167</v>
-      </c>
       <c r="I19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H26" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="H28" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I28" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E28" r:id="rId1" display="https://coolsymbol.com/copy/Heavy_Eight_Teardrop-Spoked_Propeller_Asterisk_Symbol_%E2%9D%8B" xr:uid="{C9635ADF-6EDA-4E17-870E-E5F7EC3EDE4D}"/>
+    <hyperlink ref="D28" r:id="rId2" display="https://coolsymbol.com/copy/Six_Petalled_Black_and_White_Florette_Symbol_%E2%9C%BE" xr:uid="{96836110-A394-4F51-B2A2-C0580F877F3D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>